--- a/001-‘’Cheese‘’/Cheese_RV/003.PickAndPlace_BMI270-RV.xlsx
+++ b/001-‘’Cheese‘’/Cheese_RV/003.PickAndPlace_BMI270-RV.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B5FD1C-009F-4E65-9F21-302B36E8B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2136" yWindow="3972" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_BMI270-RV_2024-04-" state="visible" r:id="rId4"/>
+    <sheet name="PickAndPlace_BMI270-RV_2024-04-" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -106,9 +110,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>M3406-ADJ</t>
-  </si>
-  <si>
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
   </si>
   <si>
@@ -650,19 +651,30 @@
   </si>
   <si>
     <t>2.4GHz</t>
+  </si>
+  <si>
+    <t>MT3406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -689,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,12 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="20" customWidth="1"/>
   </cols>
@@ -1172,28 +1186,28 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1208,12 +1222,12 @@
         <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1222,22 +1236,22 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1257,31 +1271,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1296,36 +1310,36 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1340,36 +1354,36 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1384,36 +1398,36 @@
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1428,36 +1442,36 @@
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1472,36 +1486,36 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
         <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
         <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1516,36 +1530,36 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1560,36 +1574,36 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>84</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1604,36 +1618,36 @@
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
-      </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1648,36 +1662,36 @@
         <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1692,36 +1706,36 @@
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
-      </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1736,36 +1750,36 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>102</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>105</v>
       </c>
       <c r="J17">
         <v>7</v>
@@ -1780,36 +1794,36 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
         <v>106</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>108</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>109</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>111</v>
-      </c>
-      <c r="I18" t="s">
-        <v>112</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -1821,15 +1835,15 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1838,22 +1852,22 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
         <v>115</v>
       </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" t="s">
-        <v>116</v>
-      </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1873,31 +1887,31 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
         <v>117</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>118</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>119</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>120</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>122</v>
-      </c>
-      <c r="I20" t="s">
-        <v>123</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1912,36 +1926,36 @@
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
         <v>125</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1956,36 +1970,36 @@
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>127</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
         <v>129</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
-        <v>129</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2000,36 +2014,36 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
         <v>133</v>
       </c>
-      <c r="E23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2044,36 +2058,36 @@
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
         <v>137</v>
       </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>138</v>
-      </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2088,36 +2102,36 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
         <v>140</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" t="s">
-        <v>141</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2132,36 +2146,36 @@
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
         <v>143</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" t="s">
         <v>144</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>143</v>
-      </c>
-      <c r="G26" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" t="s">
-        <v>144</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2176,36 +2190,36 @@
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
         <v>148</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>147</v>
-      </c>
-      <c r="G27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" t="s">
-        <v>148</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2220,36 +2234,36 @@
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
         <v>150</v>
       </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
         <v>151</v>
       </c>
-      <c r="E28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" t="s">
-        <v>152</v>
-      </c>
       <c r="I28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2264,36 +2278,36 @@
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" t="s">
         <v>153</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>154</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
         <v>155</v>
       </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
         <v>156</v>
       </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>157</v>
-      </c>
-      <c r="I29" t="s">
-        <v>158</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -2308,36 +2322,36 @@
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
         <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s">
         <v>162</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s">
-        <v>163</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2352,12 +2366,12 @@
         <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -2366,22 +2380,22 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" t="s">
         <v>166</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="s">
         <v>167</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>166</v>
-      </c>
-      <c r="G31" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" t="s">
-        <v>167</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2401,10 +2415,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
         <v>169</v>
-      </c>
-      <c r="B32" t="s">
-        <v>170</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -2413,19 +2427,19 @@
         <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2440,36 +2454,36 @@
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
         <v>172</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>173</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>174</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>175</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" t="s">
         <v>176</v>
       </c>
-      <c r="F33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>177</v>
-      </c>
-      <c r="I33" t="s">
-        <v>178</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -2484,36 +2498,36 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" t="s">
         <v>180</v>
-      </c>
-      <c r="B34" t="s">
-        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
         <v>182</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
         <v>183</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>182</v>
-      </c>
-      <c r="G34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" t="s">
-        <v>183</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -2528,36 +2542,36 @@
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
         <v>186</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>187</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>188</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>189</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" t="s">
         <v>190</v>
-      </c>
-      <c r="F35" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" t="s">
-        <v>191</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -2572,36 +2586,36 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
         <v>193</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>194</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>195</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" t="s">
         <v>196</v>
       </c>
-      <c r="E36" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>197</v>
-      </c>
-      <c r="I36" t="s">
-        <v>198</v>
       </c>
       <c r="J36">
         <v>14</v>
@@ -2616,36 +2630,36 @@
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s">
         <v>199</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>200</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
         <v>201</v>
       </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" t="s">
         <v>202</v>
       </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" t="s">
-        <v>203</v>
-      </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2657,39 +2671,39 @@
         <v>180</v>
       </c>
       <c r="M37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
         <v>204</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>205</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>206</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>207</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>209</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>210</v>
-      </c>
-      <c r="I38" t="s">
-        <v>211</v>
       </c>
       <c r="J38">
         <v>11</v>
@@ -2704,12 +2718,13 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>